--- a/res/report-short-test.xlsx
+++ b/res/report-short-test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>B3F ID</t>
   </si>
@@ -85,117 +86,119 @@
     <t>3d0f5ea4-1394-46d0-b0b1-ba0ea9af8379</t>
   </si>
   <si>
+    <t>Pilastro in calcestruzzo - Rettangolare</t>
+  </si>
+  <si>
+    <t>Pilastro</t>
+  </si>
+  <si>
+    <t>via Merezzate, Milano&gt;E10&gt;P1</t>
+  </si>
+  <si>
+    <t>C25/30</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Appaltatore 1</t>
+  </si>
+  <si>
+    <t>Bassa</t>
+  </si>
+  <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b926</t>
+  </si>
+  <si>
     <t>02f78837-7e96-4be4-9f56-37cc6290982e</t>
   </si>
   <si>
+    <t>Installed</t>
+  </si>
+  <si>
+    <t>Appaltatore 3</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b930</t>
+  </si>
+  <si>
     <t>259ff71f-ef43-472e-9636-9f89d8ff6001</t>
   </si>
   <si>
+    <t>Start-up</t>
+  </si>
+  <si>
+    <t>Appaltatore 2</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b922</t>
+  </si>
+  <si>
     <t>56f76384-4ed6-483a-89f6-bea3542e30d2</t>
   </si>
   <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b928</t>
+  </si>
+  <si>
     <t>cf2315fe-527d-466c-b8e7-b947a26794e7</t>
   </si>
   <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b938</t>
+  </si>
+  <si>
     <t>9f03397c-3a43-48e9-b8d8-7c7a495c8dc9</t>
   </si>
   <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b924</t>
+  </si>
+  <si>
     <t>0514a0c8-2faf-4724-9fa6-af9b7f854aeb</t>
   </si>
   <si>
+    <t>40e526d7-263a-4f74-b935-1359b190b950</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Pilastro in calcestruzzo - Rettangolare</t>
-  </si>
-  <si>
-    <t>Pilastro</t>
-  </si>
-  <si>
-    <t>via Merezzate, Milano&gt;E10&gt;P1</t>
-  </si>
-  <si>
-    <t>C25/30</t>
-  </si>
-  <si>
-    <t>Ordered</t>
-  </si>
-  <si>
-    <t>Installed</t>
-  </si>
-  <si>
-    <t>Start-up</t>
-  </si>
-  <si>
-    <t>Appaltatore 1</t>
-  </si>
-  <si>
-    <t>Appaltatore 3</t>
-  </si>
-  <si>
-    <t>Appaltatore 2</t>
-  </si>
-  <si>
-    <t>Bassa</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
     <t>Bad</t>
   </si>
   <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b926</t>
-  </si>
-  <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b930</t>
-  </si>
-  <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b922</t>
-  </si>
-  <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b928</t>
-  </si>
-  <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b938</t>
-  </si>
-  <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b924</t>
-  </si>
-  <si>
-    <t>40e526d7-263a-4f74-b935-1359b190b950</t>
+    <t>casting</t>
+  </si>
+  <si>
+    <t>maturation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,36 +213,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -527,12 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -607,491 +607,736 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>43211.22545138889</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" t="n">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>43211.22545138889</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2">
-        <v>50</v>
-      </c>
-      <c r="O2">
-        <v>112</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>43211.22543981481</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O3" t="n">
+        <v>102</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s">
         <v>35</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43211.22543981481</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>102</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
+      <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
+        <v>37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>43211.22545138889</v>
       </c>
       <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>115</v>
+      </c>
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="N4">
-        <v>25</v>
-      </c>
-      <c r="O4">
-        <v>115</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>43211.22546296296</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5">
+        <v>28</v>
+      </c>
+      <c r="N5" t="n">
         <v>100</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+        <v>27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>43211.22545138889</v>
       </c>
       <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="n">
+        <v>75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>109</v>
+      </c>
+      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="N6">
-        <v>75</v>
-      </c>
-      <c r="O6">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>43211.22545138889</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="n">
+        <v>50</v>
+      </c>
+      <c r="O7" t="n">
+        <v>113</v>
+      </c>
+      <c r="P7" t="s">
         <v>34</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>43211.22545138889</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
-        <v>113</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
+        <v>27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <v>43211.22547453704</v>
       </c>
       <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>50</v>
+      </c>
+      <c r="O8" t="n">
+        <v>116</v>
+      </c>
+      <c r="P8" t="s">
         <v>39</v>
       </c>
-      <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="O8">
-        <v>116</v>
-      </c>
-      <c r="P8" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
       <c r="V8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
         <v>11.333</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>21.333</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>16.667</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>0.053</v>
       </c>
+      <c r="V9" t="s"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
         <v>11.333</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>21.333</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>16.667</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>0.095</v>
       </c>
+      <c r="V10" t="s"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
         <v>11.333</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>21.333</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>16.667</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>0.154</v>
       </c>
+      <c r="V11" t="s"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>11.333</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>21.333</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>16.667</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>0.241</v>
       </c>
+      <c r="V12" t="s"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
         <v>11.333</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>21.333</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>16.667</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>0.077</v>
       </c>
+      <c r="V13" t="s"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
         <v>21</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>51</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>20</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>0.175</v>
       </c>
+      <c r="V14" t="s"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
         <v>11.333</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>21.333</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>16.667</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>0.281</v>
       </c>
+      <c r="V15" t="s"/>
     </row>
     <row r="16" spans="1:22">
+      <c r="A16" t="s"/>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16">
+        <v>50</v>
+      </c>
+      <c r="R16" t="n">
         <v>11.333</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>21.333</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>16.667</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>0.13</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s"/>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" t="n">
+        <v>26.514</v>
+      </c>
+      <c r="S17" t="n">
+        <v>19.814</v>
+      </c>
+      <c r="T17" t="n">
+        <v>19.814</v>
+      </c>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s"/>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="S18" t="n">
+        <v>19.867</v>
+      </c>
+      <c r="T18" t="n">
+        <v>19.867</v>
+      </c>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>